--- a/classification/droptc/sentence/modern-bert/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/37622020/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6812804937362671</v>
+        <v>0.3819408118724823</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8419320583343506</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3718827068805695</v>
+        <v>0.8384538888931274</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8473694920539856</v>
+        <v>0.7220954895019531</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.668055534362793</v>
+        <v>0.97405606508255</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7840673327445984</v>
+        <v>0.7555122375488281</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3609532117843628</v>
+        <v>0.7101022005081177</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7700269222259521</v>
+        <v>0.8920351266860962</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7596349120140076</v>
+        <v>0.7101022005081177</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5551580786705017</v>
+        <v>0.7925154566764832</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7844712138175964</v>
+        <v>0.7783215641975403</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.8338519334793091</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4247835278511047</v>
+        <v>0.8518558740615845</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2667930722236633</v>
+        <v>0.9396907687187195</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4438653290271759</v>
+        <v>0.8516037464141846</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3583367466926575</v>
+        <v>0.795903742313385</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4166538119316101</v>
+        <v>0.7167770862579346</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.9825970530509949</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2814350724220276</v>
+        <v>0.8755620718002319</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3813900947570801</v>
+        <v>0.9962389469146729</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.353506475687027</v>
+        <v>0.7843387722969055</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353506475687027</v>
+        <v>0.9899140596389771</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6514519453048706</v>
+        <v>0.9336352348327637</v>
       </c>
     </row>
     <row r="25">
@@ -1127,14 +1127,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2682828009128571</v>
+        <v>0.4120810925960541</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5944097638130188</v>
+        <v>0.4860490560531616</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4220775961875916</v>
+        <v>0.970146656036377</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5911760926246643</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7544917464256287</v>
+        <v>0.6861032843589783</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6176906824111938</v>
+        <v>0.9320856928825378</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5537813901901245</v>
+        <v>0.8335320353507996</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.592299222946167</v>
+        <v>0.8794708847999573</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8512325286865234</v>
+        <v>0.5787342190742493</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7785205245018005</v>
+        <v>0.947215735912323</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5753837823867798</v>
+        <v>0.9645972847938538</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5118430852890015</v>
+        <v>0.9547120332717896</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8319247364997864</v>
+        <v>0.9706946015357971</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.463414341211319</v>
+        <v>0.9509690999984741</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6106709241867065</v>
+        <v>0.9752662181854248</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7774406671524048</v>
+        <v>0.2505781352519989</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3058707118034363</v>
+        <v>0.9942530989646912</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.617429792881012</v>
+        <v>0.5424116849899292</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5395362973213196</v>
+        <v>0.6732760667800903</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8129643201828003</v>
+        <v>0.9092862010002136</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7682288885116577</v>
+        <v>0.8457181453704834</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3432904779911041</v>
+        <v>0.8737322688102722</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4948690831661224</v>
+        <v>0.6183262467384338</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3860770463943481</v>
+        <v>0.8227609992027283</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6897077560424805</v>
+        <v>0.9993125200271606</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7442679405212402</v>
+        <v>0.8847510814666748</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3960383236408234</v>
+        <v>0.7395357489585876</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8795915246009827</v>
+        <v>0.8888241648674011</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7761306762695312</v>
+        <v>0.8847510814666748</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8739801049232483</v>
+        <v>0.6203855276107788</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4807958006858826</v>
+        <v>0.9961554408073425</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8808143138885498</v>
+        <v>0.9979144930839539</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4862849414348602</v>
+        <v>0.9983490705490112</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.712800145149231</v>
+        <v>0.8317191004753113</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7700971961021423</v>
+        <v>0.9888218641281128</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.8608011603355408</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6451398730278015</v>
+        <v>0.9577815532684326</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.645238995552063</v>
+        <v>0.8175172209739685</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5896860957145691</v>
+        <v>0.876852810382843</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7493051886558533</v>
+        <v>0.724892258644104</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5965741276741028</v>
+        <v>0.9155852198600769</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3090876340866089</v>
+        <v>0.9155852198600769</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5461353063583374</v>
+        <v>0.7812581062316895</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5265194177627563</v>
+        <v>0.9155852198600769</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5257523059844971</v>
+        <v>0.678848922252655</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8677988648414612</v>
+        <v>0.9143825769424438</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9419943690299988</v>
+        <v>0.6013032793998718</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2814350724220276</v>
+        <v>0.9890599250793457</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.8743160367012024</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.353506475687027</v>
+        <v>0.6883792877197266</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5971258878707886</v>
+        <v>0.5275275707244873</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6054562926292419</v>
+        <v>0.8743160367012024</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8647204637527466</v>
+        <v>0.6247231960296631</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4220592379570007</v>
+        <v>0.8743160367012024</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8370566964149475</v>
+        <v>0.9940872192382812</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6208809018135071</v>
+        <v>0.4361691772937775</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7462596297264099</v>
+        <v>0.4291690289974213</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7549746036529541</v>
+        <v>0.5350248217582703</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.8737751245498657</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4166538119316101</v>
+        <v>0.8737751245498657</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3926973640918732</v>
+        <v>0.9875654578208923</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8723210096359253</v>
+        <v>0.8655213713645935</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7190157771110535</v>
+        <v>0.9294729828834534</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8045119047164917</v>
+        <v>0.8218183517456055</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7557774186134338</v>
+        <v>0.7264501452445984</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5491527318954468</v>
+        <v>0.9820523858070374</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8510726094245911</v>
+        <v>0.9816924333572388</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.9803845882415771</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6246057152748108</v>
+        <v>0.9857041239738464</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2814350724220276</v>
+        <v>0.9851421117782593</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6947197914123535</v>
+        <v>0.9789350628852844</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6117570400238037</v>
+        <v>0.9838950037956238</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.620263934135437</v>
+        <v>0.3514969944953918</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5020375847816467</v>
+        <v>0.9839690923690796</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3048054873943329</v>
+        <v>0.9045717716217041</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6172328591346741</v>
+        <v>0.7618239521980286</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7110666632652283</v>
+        <v>0.9513312578201294</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6981160640716553</v>
+        <v>0.4896337389945984</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8764899373054504</v>
+        <v>0.5655807852745056</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5747562646865845</v>
+        <v>0.8771844506263733</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.9402235746383667</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9462753534317017</v>
+        <v>0.9521328210830688</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3048054873943329</v>
+        <v>0.487495094537735</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8401160836219788</v>
+        <v>0.6117433309555054</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6386293768882751</v>
+        <v>0.9596400260925293</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5313436388969421</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4813078641891479</v>
+        <v>0.6699464321136475</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7040970921516418</v>
+        <v>0.5584614872932434</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2823452651500702</v>
+        <v>0.8759259581565857</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4916952550411224</v>
+        <v>0.978227972984314</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3992396593093872</v>
+        <v>0.7092665433883667</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4721226990222931</v>
+        <v>0.4200872480869293</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8088935017585754</v>
+        <v>0.7961078286170959</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6359373927116394</v>
+        <v>0.4972473084926605</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6268699169158936</v>
+        <v>0.671547532081604</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.75873202085495</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.271960586309433</v>
+        <v>0.8150146007537842</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8609717488288879</v>
+        <v>0.9658795595169067</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7621939182281494</v>
+        <v>0.8150146007537842</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.805462121963501</v>
+        <v>0.9658795595169067</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8259276747703552</v>
+        <v>0.8150146007537842</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5068486332893372</v>
+        <v>0.9961601495742798</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8477354645729065</v>
+        <v>0.292482316493988</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7164998054504395</v>
+        <v>0.616451621055603</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6288589835166931</v>
+        <v>0.46245938539505</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.737572193145752</v>
+        <v>0.9879410862922668</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7666292190551758</v>
+        <v>0.6829502582550049</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5809629559516907</v>
+        <v>0.9480685591697693</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.668465793132782</v>
+        <v>0.481896698474884</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.7759959101676941</v>
+        <v>0.9886449575424194</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9246930480003357</v>
+        <v>0.8376380205154419</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6346861124038696</v>
+        <v>0.9843959808349609</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.263418585062027</v>
+        <v>0.8005447387695312</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4058831632137299</v>
+        <v>0.9860785603523254</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4382890164852142</v>
+        <v>0.9942664504051208</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4143568873405457</v>
+        <v>0.7859334349632263</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4835064113140106</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5614415407180786</v>
+        <v>0.4349804818630219</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.3441573977470398</v>
+        <v>0.9715946316719055</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6958549618721008</v>
+        <v>0.4349804818630219</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7886956334114075</v>
+        <v>0.9631484746932983</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3790242075920105</v>
+        <v>0.678848922252655</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8171420693397522</v>
+        <v>0.8939858675003052</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4035001397132874</v>
+        <v>0.8363900780677795</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.6345199942588806</v>
+        <v>0.3558529913425446</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6496106386184692</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6516023874282837</v>
+        <v>0.3564411699771881</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8778408169746399</v>
+        <v>0.9841251373291016</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3413753807544708</v>
+        <v>0.7589355111122131</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6855546832084656</v>
+        <v>0.9952534437179565</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6057589650154114</v>
+        <v>0.5598140954971313</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7587401270866394</v>
+        <v>0.9944695234298706</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.3880828619003296</v>
+        <v>0.7315914630889893</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4218610227108002</v>
+        <v>0.9976029992103577</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6594781279563904</v>
+        <v>0.6408428549766541</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5315734148025513</v>
+        <v>0.9875027537345886</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6506702899932861</v>
+        <v>0.9571219086647034</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7742913961410522</v>
+        <v>0.8365882635116577</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2397923022508621</v>
+        <v>0.614864706993103</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.592056930065155</v>
+        <v>0.993024468421936</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6208809018135071</v>
+        <v>0.9122479557991028</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.591752290725708</v>
+        <v>0.6383045315742493</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8127806782722473</v>
+        <v>0.5765979886054993</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6713275909423828</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="170">
@@ -5187,14 +5187,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4866906702518463</v>
+        <v>0.6383045315742493</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.271960586309433</v>
+        <v>0.722943902015686</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3609532117843628</v>
+        <v>0.9996322393417358</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6447098851203918</v>
+        <v>0.8896028399467468</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8283618092536926</v>
+        <v>0.9308716058731079</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8764899373054504</v>
+        <v>0.8896028399467468</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7273433804512024</v>
+        <v>0.8221736550331116</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7620962262153625</v>
+        <v>0.9308716058731079</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2725988030433655</v>
+        <v>0.8634350299835205</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.748654305934906</v>
+        <v>0.9859064817428589</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6285446882247925</v>
+        <v>0.9497067928314209</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.685369074344635</v>
+        <v>0.6335440874099731</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7436791658401489</v>
+        <v>0.9636481404304504</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8120307326316833</v>
+        <v>0.4257050454616547</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8741035461425781</v>
+        <v>0.9991909861564636</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4000868797302246</v>
+        <v>0.9651301503181458</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4166538119316101</v>
+        <v>0.9661275148391724</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8895905017852783</v>
+        <v>0.9690107703208923</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5747562646865845</v>
+        <v>0.9604232907295227</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9222697615623474</v>
+        <v>0.9655457139015198</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5802975296974182</v>
+        <v>0.9712466597557068</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7651643753051758</v>
+        <v>0.4031352698802948</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6516023874282837</v>
+        <v>0.9606572389602661</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.687921941280365</v>
+        <v>0.9503063559532166</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.336247593164444</v>
+        <v>0.8836154937744141</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7244324088096619</v>
+        <v>0.6592752933502197</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9183413982391357</v>
+        <v>0.998996913433075</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5757508873939514</v>
+        <v>0.8153071999549866</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9402834177017212</v>
+        <v>0.457743227481842</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5175274014472961</v>
+        <v>0.9010413289070129</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.360688716173172</v>
+        <v>0.8597024083137512</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4064173102378845</v>
+        <v>0.997826874256134</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6540418267250061</v>
+        <v>0.9751676917076111</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.4220592379570007</v>
+        <v>0.7852030396461487</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6242870092391968</v>
+        <v>0.3228729367256165</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8094322681427002</v>
+        <v>0.6717212796211243</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.2487983256578445</v>
+        <v>0.9953522682189941</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6367841362953186</v>
+        <v>0.451628714799881</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.620263934135437</v>
+        <v>0.9717413783073425</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8064834475517273</v>
+        <v>0.4551486968994141</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5853014588356018</v>
+        <v>0.9993118047714233</v>
       </c>
     </row>
   </sheetData>
